--- a/data/raw/all_customers.xlsx
+++ b/data/raw/all_customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,8 +541,10 @@
           <t>산곡동</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
@@ -612,8 +614,10 @@
           <t>산곡동</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -679,8 +683,10 @@
           <t>부평구,계양구</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -746,8 +752,10 @@
           <t>부평동,산곡동,삼산동</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -813,8 +821,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -880,8 +890,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -947,8 +959,10 @@
           <t>부평구</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1014,8 +1028,10 @@
           <t>부평구,계양구,남동구</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1081,8 +1097,10 @@
           <t>부평동</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>1</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1155,23 +1173,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1000</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -1197,6 +1209,142 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>스튜디오</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>010-7171-6746</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>200</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{"region":"부평구","floor":"2-10","area_real":"24","deposit":"3000","rent":"200","premium":"0"}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2025-08-18T05:59:29.229Z</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>스튜디오_01071716746</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>오부장</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>부평시장역 베이커리카페</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>010-3450-2243</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>15-30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{"region":"부평동","floor":"1","area_real":"15-30","deposit":"3000","rent":"200","premium":"2000"}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2025-08-18T07:42:56.623Z</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>부평시장역_베이커리카페_01034502243</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/raw/all_customers.xlsx
+++ b/data/raw/all_customers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,31 @@
           <t>area_real</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>floor_pref</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>area_pref</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>deposit_pref</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rent_pref</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>premium_pref</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,14 +572,20 @@
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>150</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5000</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -592,6 +623,11 @@
           <t>10.0</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -624,14 +660,20 @@
           <t>15.0</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5000</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -661,6 +703,11 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -693,14 +740,20 @@
           <t>20.0</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10000</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -730,6 +783,11 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -762,14 +820,20 @@
           <t>10.0</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>200</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3000</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -799,6 +863,11 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -831,14 +900,20 @@
           <t>20.0</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H6" t="n">
-        <v>200</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3000</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,6 +943,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -900,14 +980,20 @@
           <t>10.0</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H7" t="n">
-        <v>150</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10000</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -937,6 +1023,11 @@
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -969,14 +1060,20 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>130</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3000</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1006,6 +1103,11 @@
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1038,14 +1140,20 @@
           <t>10.0</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H9" t="n">
-        <v>200</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5000</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1075,6 +1183,11 @@
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1107,14 +1220,20 @@
           <t>10.0</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H10" t="n">
-        <v>200</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5000</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1144,6 +1263,11 @@
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1176,14 +1300,20 @@
           <t>10.0</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>2000</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1000</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
@@ -1209,6 +1339,11 @@
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1241,19 +1376,25 @@
           <t>24.0</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>200</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{"region":"부평구","floor":"2-10","area_real":"24","deposit":"3000","rent":"200","premium":"0"}</t>
+          <t>{"region":"부평구","floor":"1-10","area_real":"20.0","deposit":"2000","rent":"150","premium":"0"}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1271,9 +1412,38 @@
           <t>스튜디오_01071716746</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>생</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1-10</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2000.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1345,6 +1515,235 @@
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>이한신고문</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>주점</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>010-9979-3043</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>부평구</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-1-2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0-4000</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0-150</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0-2000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>권보합4천</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{"region":"부평구","floor":"-1-2","area_real":"30","deposit":"0-4000","rent":"0-150","premium":"0-2000"}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2025-08-23T08:16:51.641Z</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>주점_01099793043</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>김포부동산</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>010-9871-3355</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>부평구,계양구</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0-10000</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0-400</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{"region":"부평구,계양구","floor":"1","area_real":"60","deposit":"0-10000","rent":"0-400","premium":"0"}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2025-08-27T01:37:51.351Z</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>김포부동산_01098713355</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>정</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>인력사무소</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>010-7990-9673</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>부평동</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2-10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60-100</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0-600</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{"region":"부평동","floor":"2-10","area_real":"60-100","deposit":"","rent":"0-600","premium":""}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>darkbirth@naver.com</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2025-08-27T02:34:49.421Z</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>인력사무소_01079909673</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
